--- a/doc/project-proposal/テスト/テスト仕様書.xlsx
+++ b/doc/project-proposal/テスト/テスト仕様書.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkat\Code\System-Development-Group-Exercise-2\doc\project-proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkat\Code\System-Development-Group-Exercise-2\doc\project-proposal\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058CAE0D-B85D-4EB9-915A-566766FB5126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E64B49B-0041-40AB-BC22-7082AE9DF94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16371" yWindow="0" windowWidth="16629" windowHeight="17880" xr2:uid="{FBA6FB83-50C6-4DF3-9F32-0C51A268196E}"/>
+    <workbookView xWindow="13174" yWindow="0" windowWidth="19826" windowHeight="17880" xr2:uid="{FBA6FB83-50C6-4DF3-9F32-0C51A268196E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="185">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="4">
@@ -367,10 +368,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CH02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正しい顧客情報が入力されている</t>
     <rPh sb="0" eb="1">
       <t>タダ</t>
@@ -422,10 +419,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CH03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チェックイン確認画面</t>
     <rPh sb="6" eb="10">
       <t>カクニンガメン</t>
@@ -473,10 +466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CH04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チェックアウト入力画面</t>
     <rPh sb="7" eb="11">
       <t>ニュウリョクガメン</t>
@@ -520,10 +509,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CH05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>領収書が印刷され、チェックインチェックアウト画面に画面遷移</t>
     <rPh sb="0" eb="3">
       <t>リョウシュウショ</t>
@@ -539,13 +524,1070 @@
   <si>
     <t>チェックアウト確認画面</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報画面</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「従業員情報登録ボタン」を押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報登録画面に移動</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報画面</t>
+  </si>
+  <si>
+    <t>「従業員情報変更ボタン」を押下</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報変更画面に移動</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「従業員情報削除ボタン」を押下</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報削除画面に移動</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報登録画面</t>
+  </si>
+  <si>
+    <t>入力項目が正しく入力されている</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「検索ボタン」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名,フリガナを自動入力、「登録ボタン」が解放される</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ジドウニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力項目が正しく入力されていない</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「従業員IDが間違っています」のポップアップを表示</t>
+    <rPh sb="1" eb="4">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録ボタン」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押しても反応しない</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力項目が正しく入力されている　管理者権限にチェックが入っている</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="21">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報を登録、管理者権限を付与、　　　　　　　　　　　　「登録が完了しました」のポップアップを表示し従業員情報画面に移動</t>
+    <rPh sb="0" eb="5">
+      <t>ジュウギョウインジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力項目が正しく入力されている　管理者権限にチェックが入っていない</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクコウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報を登録、「登録が完了しました」のポップアップを表示し従業員情報画面に移動</t>
+    <rPh sb="0" eb="5">
+      <t>ジュウギョウインジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「戻るボタン」を押下</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報画面に移動</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報変更画面</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名,フリガナを自動入力、「変更ボタン」が解放される</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ジドウニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限にチェックが入っている　　パスワード削除にチェックが入っている</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「変更ボタン」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限を付与、パスワードを削除、　　　　　　　　　　　　「登録が完了しました」のポップアップを表示し従業員情報画面に移動</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限にチェックが入っている　　パスワード削除にチェックが入っていない</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限を付与、「登録が完了しました」のポップアップを表示し従業員情報画面に移動</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限にチェックが入っていない　パスワード削除にチェックが入っている</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限を削除、パスワードを削除、　　　　　　　　　　　　「登録が完了しました」のポップアップを表示し従業員情報画面に移動</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限にチェックが入っていない　パスワード削除にチェックが入っていない</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限を削除、「登録が完了しました」のポップアップを表示し従業員情報画面に移動</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報削除画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名,フリガナを自動入力、「削除ボタン」が解放される</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ジドウニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除ボタン」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報を削除、「削除が完了しました」のポップアップを表示し従業員情報画面に移動</t>
+    <rPh sb="0" eb="5">
+      <t>ジュウギョウインジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EI01</t>
+  </si>
+  <si>
+    <t>EI02</t>
+  </si>
+  <si>
+    <t>EI03</t>
+  </si>
+  <si>
+    <t>EI04</t>
+  </si>
+  <si>
+    <t>[ReI01]Reservation_information.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ReI02]Reservation_information_search.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報検索画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ReI03]Reservation_information_show.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報表示画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ReI04]Reservation_information_registration_input.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報登録入力画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ReI05]Reservation_information_registration_confirmation.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報登録確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ReI06]Reservation_information_select.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報選択画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ReI07]Reservation_information_change.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報変更画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ReI08]Reservation_information_change_confirmation.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報変更確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ReI09]Reservation_information_deletion_confirmation.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報削除確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ReI10]Reservation_information_show_search.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報一覧検索画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ReI11]Reservation_information_showlist.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報一覧表示画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LO02</t>
+  </si>
+  <si>
+    <t>LO03</t>
+  </si>
+  <si>
+    <t>Pa02</t>
+  </si>
+  <si>
+    <t>Pa03</t>
+  </si>
+  <si>
+    <t>Pa04</t>
+  </si>
+  <si>
+    <t>Pa05</t>
+  </si>
+  <si>
+    <t>SB02</t>
+  </si>
+  <si>
+    <t>SB03</t>
+  </si>
+  <si>
+    <t>SB04</t>
+  </si>
+  <si>
+    <t>SB05</t>
+  </si>
+  <si>
+    <t>SB06</t>
+  </si>
+  <si>
+    <t>CH02</t>
+  </si>
+  <si>
+    <t>CH03</t>
+  </si>
+  <si>
+    <t>CH04</t>
+  </si>
+  <si>
+    <t>CH05</t>
+  </si>
+  <si>
+    <t>CH06</t>
+  </si>
+  <si>
+    <t>CH07</t>
+  </si>
+  <si>
+    <t>CH08</t>
+  </si>
+  <si>
+    <t>CH09</t>
+  </si>
+  <si>
+    <t>CH10</t>
+  </si>
+  <si>
+    <t>CH11</t>
+  </si>
+  <si>
+    <t>CH12</t>
+  </si>
+  <si>
+    <t>CH13</t>
+  </si>
+  <si>
+    <t>EI05</t>
+  </si>
+  <si>
+    <t>EI06</t>
+  </si>
+  <si>
+    <t>EI07</t>
+  </si>
+  <si>
+    <t>EI08</t>
+  </si>
+  <si>
+    <t>EI09</t>
+  </si>
+  <si>
+    <t>EI10</t>
+  </si>
+  <si>
+    <t>EI11</t>
+  </si>
+  <si>
+    <t>EI12</t>
+  </si>
+  <si>
+    <t>EI13</t>
+  </si>
+  <si>
+    <t>EI14</t>
+  </si>
+  <si>
+    <t>EI15</t>
+  </si>
+  <si>
+    <t>EI16</t>
+  </si>
+  <si>
+    <t>EI17</t>
+  </si>
+  <si>
+    <t>EI18</t>
+  </si>
+  <si>
+    <t>EI19</t>
+  </si>
+  <si>
+    <t>EI20</t>
+  </si>
+  <si>
+    <t>EI21</t>
+  </si>
+  <si>
+    <t>EI22</t>
+  </si>
+  <si>
+    <t>ReI01</t>
+  </si>
+  <si>
+    <t>「ボタン」を押下</t>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「予約編集ボタン」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報検索画面に画面遷移</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReI02</t>
+  </si>
+  <si>
+    <t>「予約表示・印刷ボタン」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報一覧検索画面に画面遷移</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報検索画面</t>
+  </si>
+  <si>
+    <t>予約情報検索画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「検索ボタンボタン」を押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報表示画面に画面遷移</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「戻るボタンボタン」を押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約情報画面に画面遷移</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReI03</t>
+  </si>
+  <si>
+    <t>ReI04</t>
+  </si>
+  <si>
+    <t>ReI05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +1600,20 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -584,18 +1640,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,556 +1979,1229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493045AF-1B22-446F-8B5E-29BA294BBB26}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.92578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.0703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.78515625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="125.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.78515625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="55.3" x14ac:dyDescent="0.65">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="36.9" x14ac:dyDescent="0.65">
+      <c r="A23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="F32" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A38" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A44" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A45" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A46" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A47" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A48" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A50" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A51" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A52" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A53" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A54" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A56" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A59" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="D61" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="D62" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="D63" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="D64" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D65" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D66" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D67" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D68" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D69" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D70" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D71" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D72" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D73" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D74" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D75" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D76" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D77" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D78" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D79" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.65">
+      <c r="D80" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D138506-5D9E-4460-803A-368D53BF5104}">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.35546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="55.3" x14ac:dyDescent="0.65">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B6" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B8" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B9" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="36.9" x14ac:dyDescent="0.65">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="F32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.65">
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.65">
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.65">
-      <c r="C35" s="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.65">
+      <c r="B12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/project-proposal/テスト/テスト仕様書.xlsx
+++ b/doc/project-proposal/テスト/テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkat\Code\System-Development-Group-Exercise-2\doc\project-proposal\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E64B49B-0041-40AB-BC22-7082AE9DF94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119F9597-1E31-4C29-8EE5-676C8F850C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13174" yWindow="0" windowWidth="19826" windowHeight="17880" xr2:uid="{FBA6FB83-50C6-4DF3-9F32-0C51A268196E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{FBA6FB83-50C6-4DF3-9F32-0C51A268196E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="295">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="4">
@@ -1582,12 +1582,918 @@
   <si>
     <t>ReI05</t>
   </si>
+  <si>
+    <t>部屋情報画面</t>
+    <rPh sb="0" eb="6">
+      <t>ヘヤジョウホウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面に部屋情報登録ボタン、部屋情報変更ボタン、部屋情報削除ボタンが表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報登録ボタンを押す</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報登録入力画面が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報画面</t>
+  </si>
+  <si>
+    <t>部屋情報変更ボタンを押す</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報変更検索画面が表示される</t>
+    <rPh sb="0" eb="10">
+      <t>ヘヤジョウホウヘンコウケンサクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報削除ボタンを押す</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報削除検索画面が表示される</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>サクジョケンサクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報登録入力画面</t>
+  </si>
+  <si>
+    <t>必要事項が記入されている</t>
+    <rPh sb="0" eb="4">
+      <t>ヒツヨウジコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報登録確認画面が表示される</t>
+    <rPh sb="0" eb="6">
+      <t>ヘヤジョウホウトウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報登録入力画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>トウロクニュウリョクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報画面に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モドガメンモド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要事項の記入漏れがある</t>
+    <rPh sb="0" eb="4">
+      <t>ヒツヨウジコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー画面が表示される</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報登録確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報画面が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報登録入力画面に戻る</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>トウロクニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報変更検索画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>ヘンコウケンサクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋番号が選択されている</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報変更入力画面が表示される</t>
+    <rPh sb="0" eb="10">
+      <t>ヘヤジョウホウヘンコウニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋番号が選択されていない</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報変更入力画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>ヘンコウニュウリョクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報変更確認画面が表示される</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>ヘンコウカクニンガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報変更確認画面</t>
+    <rPh sb="0" eb="6">
+      <t>ヘヤジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報削除検索画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報削除確認画面が表示される</t>
+    <rPh sb="0" eb="10">
+      <t>ヘヤジョウホウサクジョカクニンガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報画面が表示される</t>
+    <rPh sb="0" eb="6">
+      <t>ヘヤジョウホウガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部屋情報削除確認画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準正常</t>
+    <rPh sb="0" eb="1">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RI01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RI02</t>
+  </si>
+  <si>
+    <t>RI03</t>
+  </si>
+  <si>
+    <t>RI04</t>
+  </si>
+  <si>
+    <t>RI05</t>
+  </si>
+  <si>
+    <t>RI06</t>
+  </si>
+  <si>
+    <t>RI07</t>
+  </si>
+  <si>
+    <t>RI08</t>
+  </si>
+  <si>
+    <t>RI09</t>
+  </si>
+  <si>
+    <t>RI10</t>
+  </si>
+  <si>
+    <t>RI11</t>
+  </si>
+  <si>
+    <t>RI12</t>
+  </si>
+  <si>
+    <t>RI13</t>
+  </si>
+  <si>
+    <t>RI14</t>
+  </si>
+  <si>
+    <t>RI15</t>
+  </si>
+  <si>
+    <t>RI16</t>
+  </si>
+  <si>
+    <t>RI17</t>
+  </si>
+  <si>
+    <t>RI18</t>
+  </si>
+  <si>
+    <t>RI19</t>
+  </si>
+  <si>
+    <t>RI20</t>
+  </si>
+  <si>
+    <t>RI21</t>
+  </si>
+  <si>
+    <t>顧客情報画面</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「顧客情報登録ボタン」を押下</t>
+    <rPh sb="1" eb="5">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報登録入力画面に移動</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「顧客情報変更ボタン」を押下</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報変更検索画面に移動</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「顧客情報削除ボタン」を押下</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報削除検索画面に移動</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報登録入力画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認ボタン」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報登録確認画面に移動</t>
+    <rPh sb="0" eb="4">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「入力項目が正しく入力されていません」のポップアップを表示</t>
+    <rPh sb="1" eb="5">
+      <t>ニュウリョクコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報画面に戻る</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報登録確認画面</t>
+    <rPh sb="0" eb="4">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報を登録、「登録が完了しました」のポップアップを表示し顧客情報画面に移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報登録入力画面に戻る</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報変更検索画面</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報変更入力画面に移動、入力項目を自動入力</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ニュウリョクコウモク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ジドウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報変更入力画面</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報変更確認画面に移動</t>
+    <rPh sb="0" eb="4">
+      <t>コキャクジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報変更検索画面に戻る</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報変更確認画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報を変更、「変更が完了しました」のポップアップを表示し顧客情報画面に移動</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報変更入力画面に戻る</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報削除検索画面</t>
+  </si>
+  <si>
+    <t>顧客情報削除確認画面に移動</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報削除検索画面に戻る</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報削除確認画面</t>
+  </si>
+  <si>
+    <t>顧客情報を削除、「削除が完了しました」のポップアップを表示し顧客情報画面に移動</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI02</t>
+  </si>
+  <si>
+    <t>CI03</t>
+  </si>
+  <si>
+    <t>CI04</t>
+  </si>
+  <si>
+    <t>CI05</t>
+  </si>
+  <si>
+    <t>CI06</t>
+  </si>
+  <si>
+    <t>CI07</t>
+  </si>
+  <si>
+    <t>CI08</t>
+  </si>
+  <si>
+    <t>CI09</t>
+  </si>
+  <si>
+    <t>CI10</t>
+  </si>
+  <si>
+    <t>CI11</t>
+  </si>
+  <si>
+    <t>CI12</t>
+  </si>
+  <si>
+    <t>CI13</t>
+  </si>
+  <si>
+    <t>CI14</t>
+  </si>
+  <si>
+    <t>CI15</t>
+  </si>
+  <si>
+    <t>CI16</t>
+  </si>
+  <si>
+    <t>CI17</t>
+  </si>
+  <si>
+    <t>CI18</t>
+  </si>
+  <si>
+    <t>CI19</t>
+  </si>
+  <si>
+    <t>CI20</t>
+  </si>
+  <si>
+    <t>CI21</t>
+  </si>
+  <si>
+    <t>途中</t>
+    <rPh sb="0" eb="2">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1600,20 +2506,6 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1640,30 +2532,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1979,1117 +2853,1789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493045AF-1B22-446F-8B5E-29BA294BBB26}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="125.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.78515625" style="4"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="125.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="55.3" x14ac:dyDescent="0.65">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="36.9" x14ac:dyDescent="0.65">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A23" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="F32" s="4" t="s">
+      <c r="F32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
+      <c r="D33" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
+      <c r="D34" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
+      <c r="D41" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A44" s="4" t="s">
+      <c r="A44" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
+      <c r="D49" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>166</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6" t="s">
+      <c r="D54" t="s">
         <v>85</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A56" s="4" t="s">
+      <c r="A56" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>174</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" t="s">
         <v>175</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>178</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" t="s">
         <v>179</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>180</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" t="s">
         <v>181</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A60" s="4" t="s">
+      <c r="A60" t="s">
         <v>184</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" t="s">
         <v>178</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="D61" s="4" t="s">
+      <c r="A61" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="D63" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="D64" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D65" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D66" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D67" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D68" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D69" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D70" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D71" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D72" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D73" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D74" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D75" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D76" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D77" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D78" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D79" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.65">
-      <c r="D80" s="4" t="s">
-        <v>170</v>
+      <c r="A64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A65" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A67" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" t="s">
+        <v>205</v>
+      </c>
+      <c r="E70" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" t="s">
+        <v>211</v>
+      </c>
+      <c r="F72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A73" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" t="s">
+        <v>206</v>
+      </c>
+      <c r="F78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A79" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A80" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" t="s">
+        <v>218</v>
+      </c>
+      <c r="F80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A81" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" t="s">
+        <v>219</v>
+      </c>
+      <c r="F82" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" t="s">
+        <v>206</v>
+      </c>
+      <c r="F83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A86" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" t="s">
+        <v>246</v>
+      </c>
+      <c r="E86" t="s">
+        <v>247</v>
+      </c>
+      <c r="F86" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A87" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" t="s">
+        <v>248</v>
+      </c>
+      <c r="E87" t="s">
+        <v>249</v>
+      </c>
+      <c r="F87" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A88" t="s">
+        <v>275</v>
+      </c>
+      <c r="B88" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" t="s">
+        <v>250</v>
+      </c>
+      <c r="E88" t="s">
+        <v>251</v>
+      </c>
+      <c r="F88" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A89" t="s">
+        <v>276</v>
+      </c>
+      <c r="B89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89" t="s">
+        <v>254</v>
+      </c>
+      <c r="F89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A90" t="s">
+        <v>277</v>
+      </c>
+      <c r="B90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" t="s">
+        <v>253</v>
+      </c>
+      <c r="E90" t="s">
+        <v>255</v>
+      </c>
+      <c r="F90" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" t="s">
+        <v>256</v>
+      </c>
+      <c r="F91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A92" t="s">
+        <v>279</v>
+      </c>
+      <c r="B92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A93" t="s">
+        <v>280</v>
+      </c>
+      <c r="B93" t="s">
+        <v>257</v>
+      </c>
+      <c r="D93" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" t="s">
+        <v>259</v>
+      </c>
+      <c r="F93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A94" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" t="s">
+        <v>261</v>
+      </c>
+      <c r="F94" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A95" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" t="s">
+        <v>260</v>
+      </c>
+      <c r="C95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95" t="s">
+        <v>255</v>
+      </c>
+      <c r="F95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A96" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" t="s">
+        <v>260</v>
+      </c>
+      <c r="D96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" t="s">
+        <v>256</v>
+      </c>
+      <c r="F96" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A97" t="s">
+        <v>284</v>
+      </c>
+      <c r="B97" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" t="s">
+        <v>253</v>
+      </c>
+      <c r="E97" t="s">
+        <v>263</v>
+      </c>
+      <c r="F97" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A98" t="s">
+        <v>285</v>
+      </c>
+      <c r="B98" t="s">
+        <v>262</v>
+      </c>
+      <c r="C98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" t="s">
+        <v>253</v>
+      </c>
+      <c r="E98" t="s">
+        <v>255</v>
+      </c>
+      <c r="F98" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A99" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" t="s">
+        <v>262</v>
+      </c>
+      <c r="D99" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" t="s">
+        <v>264</v>
+      </c>
+      <c r="F99" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A100" t="s">
+        <v>287</v>
+      </c>
+      <c r="B100" t="s">
+        <v>265</v>
+      </c>
+      <c r="D100" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" t="s">
+        <v>266</v>
+      </c>
+      <c r="F100" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A101" t="s">
+        <v>288</v>
+      </c>
+      <c r="B101" t="s">
+        <v>265</v>
+      </c>
+      <c r="D101" t="s">
+        <v>85</v>
+      </c>
+      <c r="E101" t="s">
+        <v>267</v>
+      </c>
+      <c r="F101" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B102" t="s">
+        <v>268</v>
+      </c>
+      <c r="C102" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" t="s">
+        <v>75</v>
+      </c>
+      <c r="E102" t="s">
+        <v>269</v>
+      </c>
+      <c r="F102" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A103" t="s">
+        <v>290</v>
+      </c>
+      <c r="B103" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" t="s">
+        <v>255</v>
+      </c>
+      <c r="F103" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A104" t="s">
+        <v>291</v>
+      </c>
+      <c r="B104" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" t="s">
+        <v>270</v>
+      </c>
+      <c r="F104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A105" t="s">
+        <v>292</v>
+      </c>
+      <c r="B105" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" t="s">
+        <v>272</v>
+      </c>
+      <c r="F105" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A106" t="s">
+        <v>293</v>
+      </c>
+      <c r="B106" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" t="s">
+        <v>270</v>
+      </c>
+      <c r="F106" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3113,26 +4659,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3140,66 +4686,66 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.65">
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>127</v>
       </c>
     </row>
